--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r107_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r107_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -621,10 +633,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -668,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="2">
+      <c r="C19" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -714,28 +726,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -823,10 +835,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -870,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="2">
+      <c r="C26" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -916,28 +928,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1054,10 +1066,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1101,28 +1113,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1147,28 +1159,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1285,10 +1297,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1332,28 +1344,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1378,28 +1390,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1487,10 +1499,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1534,28 +1546,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1580,28 +1592,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1718,10 +1730,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1765,28 +1777,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="2">
+      <c r="C57" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1811,28 +1823,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1949,10 +1961,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1996,28 +2008,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2042,28 +2054,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2151,10 +2163,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2198,28 +2210,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2244,28 +2256,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2382,10 +2394,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2429,28 +2441,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2475,28 +2487,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2584,10 +2596,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2631,28 +2643,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2677,28 +2689,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2786,10 +2798,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2833,28 +2845,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2879,28 +2891,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3017,10 +3029,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3064,28 +3076,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3110,28 +3122,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3219,10 +3231,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3266,28 +3278,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3312,28 +3324,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3566,10 +3578,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3613,28 +3625,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3659,28 +3671,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3797,10 +3809,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3844,28 +3856,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3890,28 +3902,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4115,10 +4127,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4162,28 +4174,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4208,28 +4220,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4433,10 +4445,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="2" t="s">
+      <c r="J149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4480,28 +4492,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4526,28 +4538,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4664,10 +4676,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4711,28 +4723,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4757,28 +4769,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4895,10 +4907,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4942,28 +4954,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4988,28 +5000,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5097,10 +5109,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5144,28 +5156,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5190,28 +5202,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5328,10 +5340,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5375,28 +5387,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5421,28 +5433,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5675,10 +5687,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5722,28 +5734,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5768,28 +5780,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5877,10 +5889,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5924,28 +5936,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5970,28 +5982,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6079,10 +6091,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6126,28 +6138,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6172,28 +6184,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6310,10 +6322,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6357,28 +6369,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6403,28 +6415,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6541,10 +6553,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6588,28 +6600,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6634,28 +6646,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6772,10 +6784,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6819,28 +6831,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6865,28 +6877,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7003,10 +7015,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7050,28 +7062,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7096,28 +7108,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7234,10 +7246,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7281,28 +7293,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7327,28 +7339,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7494,10 +7506,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="2" t="s">
+      <c r="J255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7541,28 +7553,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
+      <c r="A257" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="2">
+      <c r="C257" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7587,28 +7599,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="2">
+      <c r="C259" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="2">
+      <c r="D259" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="2">
+      <c r="I259" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7667,10 +7679,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
